--- a/data/trans_orig/AIRE_1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1-Provincia-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3974</v>
+        <v>4530</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.005374990360264702</v>
+        <v>0.005374990360264703</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02414719021588326</v>
+        <v>0.02752778480232063</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2346</v>
+        <v>2436</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002660101443034059</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01322766005366119</v>
+        <v>0.01373495029081303</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4845</v>
+        <v>5044</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.003966752535369414</v>
+        <v>0.003966752535369413</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01417075766632346</v>
+        <v>0.01475186288972964</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>2521</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6300</v>
+        <v>6678</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01531739545637062</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004316113827345076</v>
+        <v>0.004218055060293821</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03828280882612959</v>
+        <v>0.04058299158893001</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3984</v>
+        <v>3787</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.004221807413172095</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02246342447519436</v>
+        <v>0.02135475231096123</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -854,19 +854,19 @@
         <v>3269</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8068</v>
+        <v>8112</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.009562011995662855</v>
+        <v>0.009562011995662853</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002586839771716748</v>
+        <v>0.002526117281738556</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02359574176500687</v>
+        <v>0.02372599759872101</v>
       </c>
     </row>
     <row r="6">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6042</v>
+        <v>6167</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006750713525915932</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03406885069157997</v>
+        <v>0.03477027475474343</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6610</v>
+        <v>6080</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003501657129281147</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01933333692671738</v>
+        <v>0.01778312910039548</v>
       </c>
     </row>
     <row r="8">
@@ -1043,16 +1043,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3647</v>
+        <v>4072</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.004870947611573475</v>
+        <v>0.004870947611573476</v>
       </c>
       <c r="H9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0221627405100306</v>
+        <v>0.02474769043828336</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1061,19 +1061,19 @@
         <v>2272</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5092</v>
+        <v>5949</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01281330518327886</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.002728908614150206</v>
+        <v>0.002787687868087391</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02871012157410007</v>
+        <v>0.03354163995361963</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -1082,19 +1082,19 @@
         <v>3074</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6962</v>
+        <v>6986</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.008990721455848527</v>
+        <v>0.008990721455848526</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.002761375062977403</v>
+        <v>0.00279499824199104</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02036295435838833</v>
+        <v>0.02043151010138052</v>
       </c>
     </row>
     <row r="10">
@@ -1111,19 +1111,19 @@
         <v>2379</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>686</v>
+        <v>658</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6798</v>
+        <v>6333</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01445410715711109</v>
+        <v>0.0144541071571111</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004166084814631448</v>
+        <v>0.003998006220753214</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04130946175306525</v>
+        <v>0.03848650285559566</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2573</v>
+        <v>2561</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002796524281696493</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01450846035222498</v>
+        <v>0.01444228378546547</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1153,19 +1153,19 @@
         <v>2875</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7429</v>
+        <v>6654</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.00840721181350476</v>
+        <v>0.008407211813504758</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002014334374746611</v>
+        <v>0.002029983869912039</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02172748941640781</v>
+        <v>0.01945997316490906</v>
       </c>
     </row>
     <row r="11">
@@ -1182,19 +1182,19 @@
         <v>5768</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2444</v>
+        <v>2250</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11807</v>
+        <v>12004</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.035051155116847</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01485426551094206</v>
+        <v>0.01367294725904239</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07174765083658155</v>
+        <v>0.07294674945032079</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1203,19 +1203,19 @@
         <v>4710</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1950</v>
+        <v>1930</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10486</v>
+        <v>10664</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02655491259163412</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01099395529207435</v>
+        <v>0.01088287113593666</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05912533080956228</v>
+        <v>0.06012723864870189</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -1224,19 +1224,19 @@
         <v>10478</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5921</v>
+        <v>6024</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>17909</v>
+        <v>18828</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03064407605827048</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0173172213085476</v>
+        <v>0.0176199509723426</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05238038809878728</v>
+        <v>0.05506702195580947</v>
       </c>
     </row>
     <row r="12">
@@ -1253,19 +1253,19 @@
         <v>6128</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2676</v>
+        <v>2558</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11687</v>
+        <v>11584</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03724040491752621</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01626053716243223</v>
+        <v>0.01554492830567105</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07101819814644621</v>
+        <v>0.0703949881601563</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -1274,19 +1274,19 @@
         <v>5067</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2470</v>
+        <v>2541</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9861</v>
+        <v>10355</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02857075615725323</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01392469804902003</v>
+        <v>0.01432838902485845</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05560335986583888</v>
+        <v>0.05838570840415903</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -1295,19 +1295,19 @@
         <v>11195</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6597</v>
+        <v>6863</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18473</v>
+        <v>18600</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03274337845162321</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01929395574280746</v>
+        <v>0.02007163515263676</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05402843749233307</v>
+        <v>0.05439931963353532</v>
       </c>
     </row>
     <row r="13">
@@ -1324,19 +1324,19 @@
         <v>6388</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1779</v>
+        <v>2039</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17570</v>
+        <v>17197</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03881750348846168</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01080934790287008</v>
+        <v>0.01239357002909988</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1067729974635038</v>
+        <v>0.1045017352344953</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1345,19 +1345,19 @@
         <v>6739</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3597</v>
+        <v>3770</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11197</v>
+        <v>11400</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03799889638483151</v>
+        <v>0.03799889638483152</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0202813777245686</v>
+        <v>0.0212562413890244</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0631345088401455</v>
+        <v>0.06427811672445671</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -1366,19 +1366,19 @@
         <v>13127</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7713</v>
+        <v>7446</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25372</v>
+        <v>23332</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03839288446270946</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0225589577760288</v>
+        <v>0.02177910152171665</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07420647944660839</v>
+        <v>0.06823918828142622</v>
       </c>
     </row>
     <row r="14">
@@ -1395,19 +1395,19 @@
         <v>2946</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>856</v>
+        <v>839</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7940</v>
+        <v>7324</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01789980346917647</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005200170623549508</v>
+        <v>0.005098978602970376</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04824805745530369</v>
+        <v>0.04450871165416571</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1416,19 +1416,19 @@
         <v>4470</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2017</v>
+        <v>2079</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7722</v>
+        <v>8224</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02520554144032091</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01137511632553223</v>
+        <v>0.01172027705966861</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04354314628656349</v>
+        <v>0.04637221925759753</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -1437,19 +1437,19 @@
         <v>7416</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3854</v>
+        <v>4136</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12860</v>
+        <v>13167</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.02168935687758406</v>
+        <v>0.02168935687758405</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01127061427861721</v>
+        <v>0.01209780448472182</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03761268257586406</v>
+        <v>0.03850939027584694</v>
       </c>
     </row>
     <row r="15">
@@ -1466,19 +1466,19 @@
         <v>136743</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>125836</v>
+        <v>125189</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>146184</v>
+        <v>145642</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.8309736924226687</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7646897877036903</v>
+        <v>0.7607563478741972</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8883450870770391</v>
+        <v>0.8850482338164102</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>259</v>
@@ -1487,19 +1487,19 @@
         <v>151180</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>142239</v>
+        <v>143105</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>158056</v>
+        <v>158009</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.8524274415788627</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8020175139443801</v>
+        <v>0.8068964717950818</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8912004937616296</v>
+        <v>0.8909333472155361</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>408</v>
@@ -1508,19 +1508,19 @@
         <v>287923</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>273738</v>
+        <v>271208</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>299280</v>
+        <v>297652</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.8421019492201463</v>
+        <v>0.842101949220146</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8006145894728349</v>
+        <v>0.7932144586775522</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8753189240095695</v>
+        <v>0.8705553070322988</v>
       </c>
     </row>
     <row r="16">
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7322</v>
+        <v>7477</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004905369215405436</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02682703073892187</v>
+        <v>0.0273938882541638</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1633,19 +1633,19 @@
         <v>3597</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>872</v>
+        <v>1288</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7758</v>
+        <v>7651</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.01456871467034305</v>
+        <v>0.01456871467034304</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003530506612647634</v>
+        <v>0.005218275896928767</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03142583856367388</v>
+        <v>0.03099037251121883</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -1654,19 +1654,19 @@
         <v>4935</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2053</v>
+        <v>2004</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10722</v>
+        <v>11010</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.009494708771164085</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003950132860543488</v>
+        <v>0.003856045009821925</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02062675738214376</v>
+        <v>0.0211806277989715</v>
       </c>
     </row>
     <row r="18">
@@ -1683,19 +1683,19 @@
         <v>8433</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2446</v>
+        <v>2843</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20060</v>
+        <v>21496</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03089545505489127</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008962143700232966</v>
+        <v>0.01041708673344223</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07349458188460342</v>
+        <v>0.07875812001107041</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -1704,19 +1704,19 @@
         <v>3292</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>738</v>
+        <v>1095</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8380</v>
+        <v>8053</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0133349144100903</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.002988545882922266</v>
+        <v>0.004437106501748875</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03394446918416334</v>
+        <v>0.03261910905854377</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>9</v>
@@ -1725,19 +1725,19 @@
         <v>11725</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5367</v>
+        <v>5298</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>25936</v>
+        <v>25717</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02255556032821424</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01032481925843744</v>
+        <v>0.0101919097663065</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04989477891739722</v>
+        <v>0.04947302890215947</v>
       </c>
     </row>
     <row r="19">
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4835</v>
+        <v>5449</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003675700801154108</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01771577405266931</v>
+        <v>0.01996388238861446</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5063</v>
+        <v>6991</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001930028025557448</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.009739518905218765</v>
+        <v>0.01344952710473608</v>
       </c>
     </row>
     <row r="21">
@@ -1880,16 +1880,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4955</v>
+        <v>4668</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.00569475074424497</v>
+        <v>0.005694750744244968</v>
       </c>
       <c r="O21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02007097385203748</v>
+        <v>0.01891012988881191</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4867</v>
+        <v>4889</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.002704564891385039</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.009362178898711731</v>
+        <v>0.009405761223951113</v>
       </c>
     </row>
     <row r="22">
@@ -1927,19 +1927,19 @@
         <v>3309</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9413</v>
+        <v>10156</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01212434372972936</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003360066188600331</v>
+        <v>0.003332538057721749</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03448571716904764</v>
+        <v>0.03721109496174057</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -1948,19 +1948,19 @@
         <v>4112</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1480</v>
+        <v>1651</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8670</v>
+        <v>8820</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01665564618855861</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005996765696087362</v>
+        <v>0.006688545131744667</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03511772430294206</v>
+        <v>0.03572526550560459</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -1969,19 +1969,19 @@
         <v>7421</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3624</v>
+        <v>3842</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14412</v>
+        <v>14490</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.01427636092816096</v>
+        <v>0.01427636092816095</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006971767813227854</v>
+        <v>0.007390615227911004</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02772458951784241</v>
+        <v>0.02787468392029686</v>
       </c>
     </row>
     <row r="23">
@@ -1998,19 +1998,19 @@
         <v>4045</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>922</v>
+        <v>1214</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10135</v>
+        <v>10597</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01482001665810834</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003376837548514158</v>
+        <v>0.004446507417370089</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03713100011270653</v>
+        <v>0.03882388005341875</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -2019,19 +2019,19 @@
         <v>2066</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5695</v>
+        <v>6225</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.008369831052458148</v>
+        <v>0.008369831052458147</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002414168768212869</v>
+        <v>0.002416385473521068</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02306943356495781</v>
+        <v>0.02521443749168638</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -2040,19 +2040,19 @@
         <v>6111</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2212</v>
+        <v>2313</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>12513</v>
+        <v>12235</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01175667880270031</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004256238613574658</v>
+        <v>0.004449329245538691</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02407174540929242</v>
+        <v>0.02353804508532194</v>
       </c>
     </row>
     <row r="24">
@@ -2069,19 +2069,19 @@
         <v>10474</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3621</v>
+        <v>3714</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>28017</v>
+        <v>24914</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03837507031255383</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01326705303936483</v>
+        <v>0.01360633572476072</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1026481008106374</v>
+        <v>0.09127852935428789</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2090,19 +2090,19 @@
         <v>5057</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1659</v>
+        <v>1616</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11974</v>
+        <v>11948</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02048336668422647</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.006721172031078968</v>
+        <v>0.00654433098015239</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0485041725018653</v>
+        <v>0.04839889607770934</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -2111,19 +2111,19 @@
         <v>15531</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8546</v>
+        <v>7913</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>33549</v>
+        <v>31418</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.02987789885528821</v>
+        <v>0.0298778988552882</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01644096924388443</v>
+        <v>0.01522184672869962</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06454132999937827</v>
+        <v>0.06044057304780362</v>
       </c>
     </row>
     <row r="25">
@@ -2140,19 +2140,19 @@
         <v>8352</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3133</v>
+        <v>3376</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18141</v>
+        <v>19320</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03059968154308051</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01147907557011419</v>
+        <v>0.01236994666945241</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06646435662099567</v>
+        <v>0.07078482598062631</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -2161,19 +2161,19 @@
         <v>3756</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1245</v>
+        <v>1297</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7875</v>
+        <v>8225</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.01521456063681508</v>
+        <v>0.01521456063681507</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005043881815543977</v>
+        <v>0.005254496009439904</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.031897621533871</v>
+        <v>0.03331738774805457</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -2182,19 +2182,19 @@
         <v>12108</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6424</v>
+        <v>5419</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24033</v>
+        <v>21869</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.02329294245623813</v>
+        <v>0.02329294245623812</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01235764727267972</v>
+        <v>0.01042460146504312</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04623392775847814</v>
+        <v>0.04207170343092389</v>
       </c>
     </row>
     <row r="26">
@@ -2211,19 +2211,19 @@
         <v>32245</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>19982</v>
+        <v>19624</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>50860</v>
+        <v>51780</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1181368989343096</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07320912714428637</v>
+        <v>0.0718967926872458</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1863417409005919</v>
+        <v>0.1897108068217301</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -2232,19 +2232,19 @@
         <v>17383</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11283</v>
+        <v>10999</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>27804</v>
+        <v>27012</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.0704116918776547</v>
+        <v>0.07041169187765468</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04570603581554114</v>
+        <v>0.04455254458014549</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1126258242230775</v>
+        <v>0.1094173172500987</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>40</v>
@@ -2253,19 +2253,19 @@
         <v>49627</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>35583</v>
+        <v>34577</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>71993</v>
+        <v>69898</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.09547112737794208</v>
+        <v>0.0954711273779421</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06845277869569445</v>
+        <v>0.06651729461851426</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1384979829171795</v>
+        <v>0.1344676075819699</v>
       </c>
     </row>
     <row r="27">
@@ -2282,19 +2282,19 @@
         <v>5396</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1426</v>
+        <v>1401</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>12147</v>
+        <v>13016</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01977061026334734</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.00522555567035447</v>
+        <v>0.005134679220845922</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04450307939153098</v>
+        <v>0.04768809790026005</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>14</v>
@@ -2303,19 +2303,19 @@
         <v>12316</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>7071</v>
+        <v>6600</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>23630</v>
+        <v>23515</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.04988824724124331</v>
+        <v>0.0498882472412433</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02864233070300114</v>
+        <v>0.02673646470524501</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09571864587600815</v>
+        <v>0.09525223796562393</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>18</v>
@@ -2324,19 +2324,19 @@
         <v>17712</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>10545</v>
+        <v>9890</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>28973</v>
+        <v>28588</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03407415175973585</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02028649312459039</v>
+        <v>0.01902598692961423</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0557374775275795</v>
+        <v>0.05499740749577599</v>
       </c>
     </row>
     <row r="28">
@@ -2353,19 +2353,19 @@
         <v>198346</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>178134</v>
+        <v>177124</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>216887</v>
+        <v>215141</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7266968534874203</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6526448668628878</v>
+        <v>0.6489436356417559</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7946285158905976</v>
+        <v>0.7882279148910915</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>269</v>
@@ -2374,19 +2374,19 @@
         <v>193887</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>179780</v>
+        <v>181825</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>204894</v>
+        <v>205719</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.7853782764943654</v>
+        <v>0.7853782764943652</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7282365192120829</v>
+        <v>0.7365177187104993</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.82996345118735</v>
+        <v>0.833303731572105</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>416</v>
@@ -2395,19 +2395,19 @@
         <v>392233</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>366463</v>
+        <v>366858</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>412077</v>
+        <v>413497</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7545659778036137</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7049894027372753</v>
+        <v>0.70575032372422</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7927403428645902</v>
+        <v>0.7954721574509042</v>
       </c>
     </row>
     <row r="29">
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5527</v>
+        <v>6440</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.008306284978783047</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02909693448905699</v>
+        <v>0.03390236593855184</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5709</v>
+        <v>5497</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.004184530134632079</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01514208743344927</v>
+        <v>0.01458021225873803</v>
       </c>
     </row>
     <row r="31">
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>7285</v>
+        <v>7075</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.006639932783289355</v>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03893428999625263</v>
+        <v>0.03781641864060575</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6167</v>
+        <v>6135</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.003294875529104399</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01635703427222095</v>
+        <v>0.01627198147243373</v>
       </c>
     </row>
     <row r="37">
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>10126</v>
+        <v>11124</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01677557237856242</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05330972039926195</v>
+        <v>0.05856370090480087</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3</v>
@@ -2881,19 +2881,19 @@
         <v>1594</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>4516</v>
+        <v>4710</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.008522031664471167</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.002417422173338842</v>
+        <v>0.002438225869185858</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02413618978023005</v>
+        <v>0.02517227220713157</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5</v>
@@ -2902,19 +2902,19 @@
         <v>4781</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>12325</v>
+        <v>12243</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01267999035764709</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.003936837782434444</v>
+        <v>0.003929236185360741</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03268904270330366</v>
+        <v>0.0324716432003164</v>
       </c>
     </row>
     <row r="38">
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>5844</v>
+        <v>5946</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.007534020497833533</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03076379534102439</v>
+        <v>0.03130317691806097</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3</v>
@@ -2952,19 +2952,19 @@
         <v>2495</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>6944</v>
+        <v>7163</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01333684238295461</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.003721637034029208</v>
+        <v>0.003784241576255522</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.03711257096290536</v>
+        <v>0.03828360760411643</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>5</v>
@@ -2973,19 +2973,19 @@
         <v>3926</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1436</v>
+        <v>1328</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>8996</v>
+        <v>8856</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.01041350383795935</v>
+        <v>0.01041350383795934</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.003807844474372978</v>
+        <v>0.003522091236454446</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02385828898853063</v>
+        <v>0.02348643432318023</v>
       </c>
     </row>
     <row r="39">
@@ -3002,19 +3002,19 @@
         <v>12087</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>6184</v>
+        <v>5699</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>21295</v>
+        <v>20470</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.06363285902960636</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.03255861430500798</v>
+        <v>0.03000141860348834</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1121112102831249</v>
+        <v>0.1077654516644782</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>15</v>
@@ -3023,19 +3023,19 @@
         <v>10852</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>6074</v>
+        <v>6674</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>17650</v>
+        <v>17039</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.05799932706613084</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.03246306945600942</v>
+        <v>0.03566962215537589</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.09433734595232889</v>
+        <v>0.09106841690999062</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>25</v>
@@ -3044,19 +3044,19 @@
         <v>22939</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>14740</v>
+        <v>15388</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>33772</v>
+        <v>33510</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.06083738094049117</v>
+        <v>0.06083738094049118</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.03909178480549335</v>
+        <v>0.04081268560735617</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.08956948330498064</v>
+        <v>0.08887411757260372</v>
       </c>
     </row>
     <row r="40">
@@ -3073,19 +3073,19 @@
         <v>30137</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>20689</v>
+        <v>21061</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>43553</v>
+        <v>40956</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.1586603858379777</v>
+        <v>0.1586603858379778</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1089185583459419</v>
+        <v>0.1108756784156252</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2292855491325941</v>
+        <v>0.2156177717903372</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>32</v>
@@ -3094,19 +3094,19 @@
         <v>30320</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>21304</v>
+        <v>21310</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>41206</v>
+        <v>40609</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.16205503377819</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1138639595392877</v>
+        <v>0.1138955159688793</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2202349730882013</v>
+        <v>0.2170448691807919</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>60</v>
@@ -3115,19 +3115,19 @@
         <v>60458</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>46763</v>
+        <v>46601</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>74329</v>
+        <v>74986</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1603448821714767</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1240235724869841</v>
+        <v>0.123594219710482</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1971325707572832</v>
+        <v>0.1988764725146376</v>
       </c>
     </row>
     <row r="41">
@@ -3144,19 +3144,19 @@
         <v>141529</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>126928</v>
+        <v>129671</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>152917</v>
+        <v>153056</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.745090877277237</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.6682203500537758</v>
+        <v>0.6826638071516324</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.8050423497411527</v>
+        <v>0.8057752352008897</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>227</v>
@@ -3165,19 +3165,19 @@
         <v>140595</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>129309</v>
+        <v>128739</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>150558</v>
+        <v>150774</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.751446832324964</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.691127165794161</v>
+        <v>0.6880775506064939</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.8046957587415018</v>
+        <v>0.8058511701039278</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>396</v>
@@ -3186,19 +3186,19 @@
         <v>282125</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>265301</v>
+        <v>266138</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>297261</v>
+        <v>298204</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.7482448370286893</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.7036241493515717</v>
+        <v>0.7058436419170165</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.7883879203302685</v>
+        <v>0.7908896630708857</v>
       </c>
     </row>
     <row r="42">
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>12108</v>
+        <v>15346</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01455136616601634</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06094310770847799</v>
+        <v>0.0772353336643261</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>2</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>8618</v>
+        <v>8821</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.009696274882178224</v>
+        <v>0.009696274882178226</v>
       </c>
       <c r="O43" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03909320872070066</v>
+        <v>0.04001514632197042</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>4</v>
@@ -3332,19 +3332,19 @@
         <v>5029</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1367</v>
+        <v>1510</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>14881</v>
+        <v>12661</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.01199774540647729</v>
+        <v>0.0119977454064773</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.003261494985288487</v>
+        <v>0.003602792734884305</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03550481244120409</v>
+        <v>0.03020752432858973</v>
       </c>
     </row>
     <row r="44">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>7702</v>
+        <v>9697</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01164396177659326</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03876323185151313</v>
+        <v>0.04880346160692693</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2</v>
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>3165</v>
+        <v>2996</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.003636205986943346</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01435896557752716</v>
+        <v>0.01359046976166924</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>4</v>
@@ -3403,19 +3403,19 @@
         <v>3115</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>799</v>
+        <v>821</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>8730</v>
+        <v>9796</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.00743214160138049</v>
+        <v>0.007432141601380491</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.001905248118122803</v>
+        <v>0.001957830243666878</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02082952313527974</v>
+        <v>0.02337116706096103</v>
       </c>
     </row>
     <row r="45">
@@ -3573,19 +3573,19 @@
         <v>5364</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1516</v>
+        <v>1591</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>15034</v>
+        <v>14799</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.02699908421163054</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.007630055121199465</v>
+        <v>0.008005873810443298</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.07566972646901091</v>
+        <v>0.07448324201021295</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>8</v>
@@ -3594,19 +3594,19 @@
         <v>4285</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1898</v>
+        <v>1877</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>8494</v>
+        <v>8613</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.01943647849692583</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.008607413661795651</v>
+        <v>0.00851489277432497</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.03852785270834546</v>
+        <v>0.03906823348252219</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>12</v>
@@ -3615,19 +3615,19 @@
         <v>9649</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>5418</v>
+        <v>4580</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>18479</v>
+        <v>16875</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.02302139855748734</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.01292547525664407</v>
+        <v>0.0109277549419113</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.04408817856253724</v>
+        <v>0.04026192365132697</v>
       </c>
     </row>
     <row r="49">
@@ -3657,19 +3657,19 @@
         <v>2841</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>912</v>
+        <v>1048</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>6575</v>
+        <v>6265</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.01288830559085836</v>
+        <v>0.01288830559085837</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.004135920040660341</v>
+        <v>0.004752176014990165</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.0298255843346975</v>
+        <v>0.02842067655376926</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>5</v>
@@ -3678,19 +3678,19 @@
         <v>2841</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>964</v>
+        <v>1103</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>6314</v>
+        <v>6962</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.00677883129029063</v>
+        <v>0.006778831290290632</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.002300222250904531</v>
+        <v>0.002631502232482297</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.01506367261778902</v>
+        <v>0.01660956433600659</v>
       </c>
     </row>
     <row r="50">
@@ -3707,19 +3707,19 @@
         <v>16121</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>6829</v>
+        <v>7752</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>34281</v>
+        <v>33923</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.08113664408370357</v>
+        <v>0.08113664408370358</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.03437195286871171</v>
+        <v>0.03901879663666829</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1725383890911741</v>
+        <v>0.1707379289102061</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>24</v>
@@ -3728,19 +3728,19 @@
         <v>20186</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>12625</v>
+        <v>13169</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>34009</v>
+        <v>32485</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.09156501255792794</v>
+        <v>0.09156501255792796</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.05726712004902004</v>
+        <v>0.05973659169979225</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1542683895884611</v>
+        <v>0.1473542553054492</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>33</v>
@@ -3749,19 +3749,19 @@
         <v>36306</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>24638</v>
+        <v>23285</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>56150</v>
+        <v>53840</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.08662162812768018</v>
+        <v>0.08662162812768019</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.05878273341691176</v>
+        <v>0.05555521250058802</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1339657710095021</v>
+        <v>0.1284535779957799</v>
       </c>
     </row>
     <row r="51">
@@ -3778,19 +3778,19 @@
         <v>6781</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>2284</v>
+        <v>1901</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>17200</v>
+        <v>17682</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.03413170068182152</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.01149402318683834</v>
+        <v>0.009569524479393778</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.08656852852011143</v>
+        <v>0.08899481440578795</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>6</v>
@@ -3799,19 +3799,19 @@
         <v>3238</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>1143</v>
+        <v>1185</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>7215</v>
+        <v>7229</v>
       </c>
       <c r="N51" s="6" t="n">
-        <v>0.01468650145717387</v>
+        <v>0.01468650145717388</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.005186784636733865</v>
+        <v>0.005374105546023465</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.03272642756944866</v>
+        <v>0.03279022832861309</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>11</v>
@@ -3820,19 +3820,19 @@
         <v>10019</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>4745</v>
+        <v>4710</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>20531</v>
+        <v>20323</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.0239041557170689</v>
+        <v>0.02390415571706891</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.01132081774423993</v>
+        <v>0.01123811537956789</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.04898386343353611</v>
+        <v>0.04848698462554538</v>
       </c>
     </row>
     <row r="52">
@@ -3849,19 +3849,19 @@
         <v>17031</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>8664</v>
+        <v>9288</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>32139</v>
+        <v>31998</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.08572047966950966</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.04360772893958216</v>
+        <v>0.0467486184808057</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1617610456518058</v>
+        <v>0.161047511957294</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>30</v>
@@ -3870,19 +3870,19 @@
         <v>18362</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>12234</v>
+        <v>12303</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>26523</v>
+        <v>26595</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.0832941285477332</v>
+        <v>0.08329412854773321</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0554941168257732</v>
+        <v>0.05580672577953612</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1203097755342061</v>
+        <v>0.1206369440848084</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>40</v>
@@ -3891,19 +3891,19 @@
         <v>35394</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>25554</v>
+        <v>25179</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>52241</v>
+        <v>52551</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.08444429756864481</v>
+        <v>0.08444429756864483</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.06096814151378552</v>
+        <v>0.0600739080866682</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1246394325460623</v>
+        <v>0.1253785571259216</v>
       </c>
     </row>
     <row r="53">
@@ -3920,19 +3920,19 @@
         <v>9272</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>4292</v>
+        <v>4166</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>17012</v>
+        <v>17070</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.04666528307055615</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.02160234497009613</v>
+        <v>0.020969399694977</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.08562215704258024</v>
+        <v>0.08591507321624432</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>6</v>
@@ -3941,19 +3941,19 @@
         <v>3626</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>1260</v>
+        <v>1403</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>7392</v>
+        <v>7175</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.01644761714503497</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.005715650757275653</v>
+        <v>0.006365660946690936</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.0335320033717396</v>
+        <v>0.03254435918310089</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>16</v>
@@ -3962,19 +3962,19 @@
         <v>12898</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>7501</v>
+        <v>6748</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>21222</v>
+        <v>20099</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.03077176953990518</v>
+        <v>0.03077176953990519</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.01789553796310499</v>
+        <v>0.0160991840271872</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.05063150981579864</v>
+        <v>0.04795311764848548</v>
       </c>
     </row>
     <row r="54">
@@ -3991,19 +3991,19 @@
         <v>138911</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>118554</v>
+        <v>118020</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>154910</v>
+        <v>153182</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.6991514803401689</v>
+        <v>0.6991514803401687</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.5966939914175884</v>
+        <v>0.5940033014450036</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.779674429417018</v>
+        <v>0.7709798434436042</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>238</v>
@@ -4012,19 +4012,19 @@
         <v>164976</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>152471</v>
+        <v>150292</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>176766</v>
+        <v>175367</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.7483494753352242</v>
+        <v>0.7483494753352243</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.69162570099459</v>
+        <v>0.6817429923112965</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.8018315060149908</v>
+        <v>0.7954845132260804</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>357</v>
@@ -4033,19 +4033,19 @@
         <v>303887</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>282458</v>
+        <v>281901</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>323427</v>
+        <v>322752</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.7250280321910653</v>
+        <v>0.7250280321910654</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.6739032432962476</v>
+        <v>0.6725724167779886</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.7716481215246855</v>
+        <v>0.7700371065911475</v>
       </c>
     </row>
     <row r="55">
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>2589</v>
+        <v>2309</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.00328547890206474</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.01868545800177489</v>
+        <v>0.0166631210552604</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>1</v>
@@ -4315,16 +4315,16 @@
         <v>0</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>2326</v>
+        <v>2587</v>
       </c>
       <c r="U59" s="6" t="n">
-        <v>0.001808014393392815</v>
+        <v>0.001808014393392814</v>
       </c>
       <c r="V59" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.009236369775983968</v>
+        <v>0.01027402416942949</v>
       </c>
     </row>
     <row r="60">
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>4657</v>
+        <v>4282</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.006888768387716</v>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.04112158556135375</v>
+        <v>0.03780858828323357</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>1</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>2065</v>
+        <v>2004</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.002891414611932395</v>
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.01490063822527726</v>
+        <v>0.01446265489145056</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>2</v>
@@ -4433,16 +4433,16 @@
         <v>0</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>4262</v>
+        <v>4283</v>
       </c>
       <c r="U61" s="6" t="n">
-        <v>0.00468900592460661</v>
+        <v>0.004689005924606609</v>
       </c>
       <c r="V61" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.01692283316433889</v>
+        <v>0.01700761019967245</v>
       </c>
     </row>
     <row r="62">
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>2488</v>
+        <v>1993</v>
       </c>
       <c r="N63" s="6" t="n">
         <v>0.003181274270764397</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.01795004303764309</v>
+        <v>0.01438062571030489</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>1</v>
@@ -4543,16 +4543,16 @@
         <v>0</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>2500</v>
+        <v>2654</v>
       </c>
       <c r="U63" s="6" t="n">
-        <v>0.00175067009782275</v>
+        <v>0.001750670097822749</v>
       </c>
       <c r="V63" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.009925873816838317</v>
+        <v>0.01054098930958496</v>
       </c>
     </row>
     <row r="64">
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>6639</v>
+        <v>6280</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.01684064454626989</v>
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.05862309636014851</v>
+        <v>0.0554579039021458</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>0</v>
@@ -4606,16 +4606,16 @@
         <v>0</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>6428</v>
+        <v>6943</v>
       </c>
       <c r="U64" s="6" t="n">
-        <v>0.007573159153338827</v>
+        <v>0.007573159153338826</v>
       </c>
       <c r="V64" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.02552685256068043</v>
+        <v>0.02757007567065189</v>
       </c>
     </row>
     <row r="65">
@@ -4632,19 +4632,19 @@
         <v>2716</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>6113</v>
+        <v>6470</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.02398679063089523</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.006385011877104791</v>
+        <v>0.006289006724649659</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.05397838876294375</v>
+        <v>0.05713010164095673</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>14</v>
@@ -4653,19 +4653,19 @@
         <v>5977</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>3455</v>
+        <v>3525</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>9736</v>
+        <v>9543</v>
       </c>
       <c r="N65" s="6" t="n">
-        <v>0.04312816908488467</v>
+        <v>0.04312816908488468</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.02492883938008437</v>
+        <v>0.02543381257624788</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.07025565100146035</v>
+        <v>0.06885963198086678</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>18</v>
@@ -4674,19 +4674,19 @@
         <v>8693</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>5144</v>
+        <v>5180</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>13935</v>
+        <v>13889</v>
       </c>
       <c r="U65" s="6" t="n">
-        <v>0.03452038064495463</v>
+        <v>0.03452038064495465</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.02042586642931091</v>
+        <v>0.02056835209179144</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.05533757590774042</v>
+        <v>0.05515422680241271</v>
       </c>
     </row>
     <row r="66">
@@ -4703,19 +4703,19 @@
         <v>57536</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>48891</v>
+        <v>48654</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>66483</v>
+        <v>67216</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.5080736075951288</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.4317353963383259</v>
+        <v>0.4296400723134391</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.5870777560856734</v>
+        <v>0.5935526485117384</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>139</v>
@@ -4724,19 +4724,19 @@
         <v>59848</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>51803</v>
+        <v>52080</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>68272</v>
+        <v>68397</v>
       </c>
       <c r="N66" s="6" t="n">
         <v>0.4318692587537367</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.3738104650468119</v>
+        <v>0.3758142495699004</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.4926514102709163</v>
+        <v>0.4935527741235943</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>222</v>
@@ -4745,19 +4745,19 @@
         <v>117385</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>105325</v>
+        <v>105803</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>129782</v>
+        <v>130892</v>
       </c>
       <c r="U66" s="6" t="n">
         <v>0.4661379983121784</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.4182457732615812</v>
+        <v>0.4201433680732853</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.5153639606209593</v>
+        <v>0.5197739428097888</v>
       </c>
     </row>
     <row r="67">
@@ -4774,19 +4774,19 @@
         <v>50304</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>41140</v>
+        <v>40759</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>59165</v>
+        <v>58870</v>
       </c>
       <c r="G67" s="6" t="n">
-        <v>0.4442101888399901</v>
+        <v>0.4442101888399902</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.3632875130896216</v>
+        <v>0.3599258280630018</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.5224532855081487</v>
+        <v>0.5198549598460214</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>152</v>
@@ -4795,19 +4795,19 @@
         <v>71458</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>63509</v>
+        <v>62994</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>79761</v>
+        <v>79728</v>
       </c>
       <c r="N67" s="6" t="n">
         <v>0.515644404376617</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.4582836688370467</v>
+        <v>0.4545710992623187</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.5755587934977006</v>
+        <v>0.5753191963199323</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>222</v>
@@ -4816,19 +4816,19 @@
         <v>121763</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>109767</v>
+        <v>108540</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>133302</v>
+        <v>133086</v>
       </c>
       <c r="U67" s="6" t="n">
         <v>0.483520771473706</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.4358850436319378</v>
+        <v>0.4310125111221401</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.5293450883149028</v>
+        <v>0.5284873773209466</v>
       </c>
     </row>
     <row r="68">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>2981</v>
+        <v>3129</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.003912591441580493</v>
@@ -4979,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.02129645178486661</v>
+        <v>0.02235647575357111</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>1</v>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>3274</v>
+        <v>3484</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.004362076640501045</v>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.02284806391164493</v>
+        <v>0.02431812311266983</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>2</v>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>3607</v>
+        <v>4708</v>
       </c>
       <c r="U70" s="6" t="n">
         <v>0.004139960037006433</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.01273639923085313</v>
+        <v>0.0166222126331704</v>
       </c>
     </row>
     <row r="71">
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>2815</v>
+        <v>2922</v>
       </c>
       <c r="G76" s="6" t="n">
         <v>0.003556353373981304</v>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.02011334024283319</v>
+        <v>0.02087977488526216</v>
       </c>
       <c r="J76" s="5" t="n">
         <v>1</v>
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>5748</v>
+        <v>5972</v>
       </c>
       <c r="N76" s="6" t="n">
         <v>0.008279677554231417</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>0.04011686391395506</v>
+        <v>0.0416845324013086</v>
       </c>
       <c r="Q76" s="5" t="n">
         <v>2</v>
@@ -5318,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>5956</v>
+        <v>7189</v>
       </c>
       <c r="U76" s="6" t="n">
         <v>0.005945610210878123</v>
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="W76" s="6" t="n">
-        <v>0.02102828265802712</v>
+        <v>0.0253813493170203</v>
       </c>
     </row>
     <row r="77">
@@ -5344,19 +5344,19 @@
         <v>2421</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>6449</v>
+        <v>6901</v>
       </c>
       <c r="G77" s="6" t="n">
         <v>0.0172960703479889</v>
       </c>
       <c r="H77" s="6" t="n">
-        <v>0.005078026216156658</v>
+        <v>0.005119108960793568</v>
       </c>
       <c r="I77" s="6" t="n">
-        <v>0.04607572213227634</v>
+        <v>0.04930624031948513</v>
       </c>
       <c r="J77" s="5" t="n">
         <v>2</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>3842</v>
+        <v>3953</v>
       </c>
       <c r="N77" s="6" t="n">
         <v>0.008726047990152126</v>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>0.02681788496419719</v>
+        <v>0.02758984404534933</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>5</v>
@@ -5386,19 +5386,19 @@
         <v>3671</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>1297</v>
+        <v>1255</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>8217</v>
+        <v>8225</v>
       </c>
       <c r="U77" s="6" t="n">
         <v>0.01296099112635989</v>
       </c>
       <c r="V77" s="6" t="n">
-        <v>0.004578108065351004</v>
+        <v>0.004431857292759602</v>
       </c>
       <c r="W77" s="6" t="n">
-        <v>0.02900929779572524</v>
+        <v>0.02903797214356948</v>
       </c>
     </row>
     <row r="78">
@@ -5415,19 +5415,19 @@
         <v>7880</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>4094</v>
+        <v>4141</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>13602</v>
+        <v>13369</v>
       </c>
       <c r="G78" s="6" t="n">
-        <v>0.05630093706426032</v>
+        <v>0.05630093706426033</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.02924790078510694</v>
+        <v>0.02958810406606367</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.09718110451114527</v>
+        <v>0.09551679151673195</v>
       </c>
       <c r="J78" s="5" t="n">
         <v>16</v>
@@ -5436,19 +5436,19 @@
         <v>10148</v>
       </c>
       <c r="L78" s="5" t="n">
-        <v>6093</v>
+        <v>6111</v>
       </c>
       <c r="M78" s="5" t="n">
-        <v>16127</v>
+        <v>16248</v>
       </c>
       <c r="N78" s="6" t="n">
         <v>0.07083070868568514</v>
       </c>
       <c r="O78" s="6" t="n">
-        <v>0.04252728723054473</v>
+        <v>0.04265157220527028</v>
       </c>
       <c r="P78" s="6" t="n">
-        <v>0.1125638997203661</v>
+        <v>0.113406044375102</v>
       </c>
       <c r="Q78" s="5" t="n">
         <v>28</v>
@@ -5457,19 +5457,19 @@
         <v>18028</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>11846</v>
+        <v>12457</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>25535</v>
+        <v>25964</v>
       </c>
       <c r="U78" s="6" t="n">
         <v>0.0636507091443127</v>
       </c>
       <c r="V78" s="6" t="n">
-        <v>0.04182501320755056</v>
+        <v>0.04398108587416828</v>
       </c>
       <c r="W78" s="6" t="n">
-        <v>0.09015269744401791</v>
+        <v>0.09166727426949299</v>
       </c>
     </row>
     <row r="79">
@@ -5486,19 +5486,19 @@
         <v>19334</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>12268</v>
+        <v>12476</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>26939</v>
+        <v>28220</v>
       </c>
       <c r="G79" s="6" t="n">
         <v>0.1381381314307817</v>
       </c>
       <c r="H79" s="6" t="n">
-        <v>0.08764889440070815</v>
+        <v>0.08913615193772821</v>
       </c>
       <c r="I79" s="6" t="n">
-        <v>0.1924727227142379</v>
+        <v>0.2016216623408832</v>
       </c>
       <c r="J79" s="5" t="n">
         <v>20</v>
@@ -5507,19 +5507,19 @@
         <v>14862</v>
       </c>
       <c r="L79" s="5" t="n">
-        <v>9214</v>
+        <v>9198</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>22612</v>
+        <v>23016</v>
       </c>
       <c r="N79" s="6" t="n">
         <v>0.1037331376225749</v>
       </c>
       <c r="O79" s="6" t="n">
-        <v>0.0643118042663272</v>
+        <v>0.06419711216038003</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>0.1578265300175735</v>
+        <v>0.1606415068914228</v>
       </c>
       <c r="Q79" s="5" t="n">
         <v>43</v>
@@ -5528,19 +5528,19 @@
         <v>34197</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>24906</v>
+        <v>25263</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>44694</v>
+        <v>46405</v>
       </c>
       <c r="U79" s="6" t="n">
         <v>0.1207346326357237</v>
       </c>
       <c r="V79" s="6" t="n">
-        <v>0.0879340394841355</v>
+        <v>0.08919487895037906</v>
       </c>
       <c r="W79" s="6" t="n">
-        <v>0.1577968678751974</v>
+        <v>0.1638391422690423</v>
       </c>
     </row>
     <row r="80">
@@ -5557,19 +5557,19 @@
         <v>109283</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>100584</v>
+        <v>99252</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>118544</v>
+        <v>117723</v>
       </c>
       <c r="G80" s="6" t="n">
         <v>0.7807959163414073</v>
       </c>
       <c r="H80" s="6" t="n">
-        <v>0.718644858452625</v>
+        <v>0.7091246670867353</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.8469616336833422</v>
+        <v>0.8410929483254921</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>205</v>
@@ -5578,19 +5578,19 @@
         <v>115202</v>
       </c>
       <c r="L80" s="5" t="n">
-        <v>106267</v>
+        <v>106498</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>122379</v>
+        <v>122466</v>
       </c>
       <c r="N80" s="6" t="n">
-        <v>0.8040683515068555</v>
+        <v>0.8040683515068554</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>0.7417024720421708</v>
+        <v>0.7433152178583761</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>0.8541594692583167</v>
+        <v>0.8547650398447421</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>353</v>
@@ -5599,19 +5599,19 @@
         <v>224485</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>212283</v>
+        <v>211485</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>236097</v>
+        <v>236469</v>
       </c>
       <c r="U80" s="6" t="n">
-        <v>0.7925680968457188</v>
+        <v>0.7925680968457189</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.7494859669393923</v>
+        <v>0.7466693574474426</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.8335636339030985</v>
+        <v>0.8348789415501543</v>
       </c>
     </row>
     <row r="81">
@@ -5703,19 +5703,19 @@
         <v>6614</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>2316</v>
+        <v>2782</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>13913</v>
+        <v>13981</v>
       </c>
       <c r="G82" s="6" t="n">
         <v>0.02056871437670192</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.007201757572566804</v>
+        <v>0.008652083745358754</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.04326997161770631</v>
+        <v>0.04348238171350224</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>6</v>
@@ -5724,19 +5724,19 @@
         <v>6088</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>2264</v>
+        <v>2709</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>16162</v>
+        <v>15842</v>
       </c>
       <c r="N82" s="6" t="n">
         <v>0.01705262249631249</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0.006341515732912008</v>
+        <v>0.007586625446812005</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.0452685347022183</v>
+        <v>0.04437176039170707</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>12</v>
@@ -5745,19 +5745,19 @@
         <v>12702</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>6958</v>
+        <v>6347</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>24443</v>
+        <v>21843</v>
       </c>
       <c r="U82" s="6" t="n">
-        <v>0.01871874367363787</v>
+        <v>0.01871874367363786</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.01025346142831565</v>
+        <v>0.009353023131335811</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.03602152570462557</v>
+        <v>0.03219010121394372</v>
       </c>
     </row>
     <row r="83">
@@ -5774,19 +5774,19 @@
         <v>12050</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>6237</v>
+        <v>5864</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>22170</v>
+        <v>21548</v>
       </c>
       <c r="G83" s="6" t="n">
-        <v>0.03747569420266707</v>
+        <v>0.03747569420266706</v>
       </c>
       <c r="H83" s="6" t="n">
-        <v>0.01939740980923642</v>
+        <v>0.01823788385364167</v>
       </c>
       <c r="I83" s="6" t="n">
-        <v>0.06894996629256189</v>
+        <v>0.06701542843658292</v>
       </c>
       <c r="J83" s="5" t="n">
         <v>14</v>
@@ -5795,19 +5795,19 @@
         <v>11979</v>
       </c>
       <c r="L83" s="5" t="n">
-        <v>7200</v>
+        <v>6375</v>
       </c>
       <c r="M83" s="5" t="n">
-        <v>21033</v>
+        <v>19679</v>
       </c>
       <c r="N83" s="6" t="n">
         <v>0.03355216583999372</v>
       </c>
       <c r="O83" s="6" t="n">
-        <v>0.02016786618900625</v>
+        <v>0.0178564990291093</v>
       </c>
       <c r="P83" s="6" t="n">
-        <v>0.05891123590201627</v>
+        <v>0.05512028418023244</v>
       </c>
       <c r="Q83" s="5" t="n">
         <v>24</v>
@@ -5816,19 +5816,19 @@
         <v>24029</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>15414</v>
+        <v>15378</v>
       </c>
       <c r="T83" s="5" t="n">
-        <v>35844</v>
+        <v>37197</v>
       </c>
       <c r="U83" s="6" t="n">
         <v>0.03541135323249234</v>
       </c>
       <c r="V83" s="6" t="n">
-        <v>0.02271508194696444</v>
+        <v>0.02266293672540425</v>
       </c>
       <c r="W83" s="6" t="n">
-        <v>0.05282357818867035</v>
+        <v>0.05481695057147448</v>
       </c>
     </row>
     <row r="84">
@@ -5861,16 +5861,16 @@
         <v>0</v>
       </c>
       <c r="M84" s="5" t="n">
-        <v>3991</v>
+        <v>3626</v>
       </c>
       <c r="N84" s="6" t="n">
-        <v>0.002001703600752567</v>
+        <v>0.002001703600752566</v>
       </c>
       <c r="O84" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P84" s="6" t="n">
-        <v>0.01117927612351381</v>
+        <v>0.01015528257061905</v>
       </c>
       <c r="Q84" s="5" t="n">
         <v>1</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="T84" s="5" t="n">
-        <v>3615</v>
+        <v>3651</v>
       </c>
       <c r="U84" s="6" t="n">
         <v>0.001053184371621125</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="W84" s="6" t="n">
-        <v>0.005328130157715769</v>
+        <v>0.005380225274379296</v>
       </c>
     </row>
     <row r="85">
@@ -5908,19 +5908,19 @@
         <v>3949</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>11295</v>
+        <v>11389</v>
       </c>
       <c r="G85" s="6" t="n">
         <v>0.01228200221766308</v>
       </c>
       <c r="H85" s="6" t="n">
-        <v>0.003476675807222082</v>
+        <v>0.003467300652368554</v>
       </c>
       <c r="I85" s="6" t="n">
-        <v>0.03512725594974096</v>
+        <v>0.03541983212462518</v>
       </c>
       <c r="J85" s="5" t="n">
         <v>3</v>
@@ -5929,19 +5929,19 @@
         <v>2326</v>
       </c>
       <c r="L85" s="5" t="n">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="M85" s="5" t="n">
-        <v>6799</v>
+        <v>6093</v>
       </c>
       <c r="N85" s="6" t="n">
-        <v>0.006515432764236784</v>
+        <v>0.006515432764236782</v>
       </c>
       <c r="O85" s="6" t="n">
-        <v>0.001928499479308286</v>
+        <v>0.001905412948198001</v>
       </c>
       <c r="P85" s="6" t="n">
-        <v>0.01904469654388651</v>
+        <v>0.01706471434963677</v>
       </c>
       <c r="Q85" s="5" t="n">
         <v>6</v>
@@ -5950,19 +5950,19 @@
         <v>6275</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>2604</v>
+        <v>2406</v>
       </c>
       <c r="T85" s="5" t="n">
-        <v>13432</v>
+        <v>13516</v>
       </c>
       <c r="U85" s="6" t="n">
-        <v>0.009247956206089225</v>
+        <v>0.009247956206089224</v>
       </c>
       <c r="V85" s="6" t="n">
-        <v>0.003838019996160591</v>
+        <v>0.003546071221080015</v>
       </c>
       <c r="W85" s="6" t="n">
-        <v>0.01979423142483957</v>
+        <v>0.01991826471852315</v>
       </c>
     </row>
     <row r="86">
@@ -5992,19 +5992,19 @@
         <v>2641</v>
       </c>
       <c r="L86" s="5" t="n">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="M86" s="5" t="n">
-        <v>7238</v>
+        <v>7048</v>
       </c>
       <c r="N86" s="6" t="n">
-        <v>0.007396908427500915</v>
+        <v>0.007396908427500913</v>
       </c>
       <c r="O86" s="6" t="n">
-        <v>0.002065652807401928</v>
+        <v>0.00208018217674693</v>
       </c>
       <c r="P86" s="6" t="n">
-        <v>0.02027186140684792</v>
+        <v>0.01974204680899276</v>
       </c>
       <c r="Q86" s="5" t="n">
         <v>3</v>
@@ -6013,19 +6013,19 @@
         <v>2641</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="T86" s="5" t="n">
-        <v>7373</v>
+        <v>6921</v>
       </c>
       <c r="U86" s="6" t="n">
-        <v>0.003891839107062448</v>
+        <v>0.003891839107062447</v>
       </c>
       <c r="V86" s="6" t="n">
-        <v>0.001093961504658825</v>
+        <v>0.001097574912660886</v>
       </c>
       <c r="W86" s="6" t="n">
-        <v>0.01086603205402251</v>
+        <v>0.01019953026685792</v>
       </c>
     </row>
     <row r="87">
@@ -6042,19 +6042,19 @@
         <v>9572</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>5051</v>
+        <v>4275</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>17256</v>
+        <v>17070</v>
       </c>
       <c r="G87" s="6" t="n">
         <v>0.02976899315844535</v>
       </c>
       <c r="H87" s="6" t="n">
-        <v>0.015709224371046</v>
+        <v>0.013294895403825</v>
       </c>
       <c r="I87" s="6" t="n">
-        <v>0.05366724497743679</v>
+        <v>0.05308880228657235</v>
       </c>
       <c r="J87" s="5" t="n">
         <v>12</v>
@@ -6063,19 +6063,19 @@
         <v>9461</v>
       </c>
       <c r="L87" s="5" t="n">
-        <v>5238</v>
+        <v>5166</v>
       </c>
       <c r="M87" s="5" t="n">
-        <v>16785</v>
+        <v>17099</v>
       </c>
       <c r="N87" s="6" t="n">
-        <v>0.02650062281779723</v>
+        <v>0.02650062281779722</v>
       </c>
       <c r="O87" s="6" t="n">
-        <v>0.01467050440897505</v>
+        <v>0.01447100831530858</v>
       </c>
       <c r="P87" s="6" t="n">
-        <v>0.04701310307576475</v>
+        <v>0.04789332118763991</v>
       </c>
       <c r="Q87" s="5" t="n">
         <v>21</v>
@@ -6084,19 +6084,19 @@
         <v>19033</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>12331</v>
+        <v>12047</v>
       </c>
       <c r="T87" s="5" t="n">
-        <v>29709</v>
+        <v>28509</v>
       </c>
       <c r="U87" s="6" t="n">
-        <v>0.02804935966118509</v>
+        <v>0.02804935966118508</v>
       </c>
       <c r="V87" s="6" t="n">
-        <v>0.01817165845688199</v>
+        <v>0.01775344903567382</v>
       </c>
       <c r="W87" s="6" t="n">
-        <v>0.04378178237880553</v>
+        <v>0.04201386954432378</v>
       </c>
     </row>
     <row r="88">
@@ -6113,19 +6113,19 @@
         <v>3923</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>10788</v>
+        <v>11085</v>
       </c>
       <c r="G88" s="6" t="n">
         <v>0.01220113094291272</v>
       </c>
       <c r="H88" s="6" t="n">
-        <v>0.00348955579191406</v>
+        <v>0.003483754719893126</v>
       </c>
       <c r="I88" s="6" t="n">
-        <v>0.03354951608949983</v>
+        <v>0.03447389254989427</v>
       </c>
       <c r="J88" s="5" t="n">
         <v>8</v>
@@ -6134,19 +6134,19 @@
         <v>5955</v>
       </c>
       <c r="L88" s="5" t="n">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="M88" s="5" t="n">
-        <v>12187</v>
+        <v>11083</v>
       </c>
       <c r="N88" s="6" t="n">
         <v>0.01667968733186588</v>
       </c>
       <c r="O88" s="6" t="n">
-        <v>0.00768672358746023</v>
+        <v>0.0076896827413919</v>
       </c>
       <c r="P88" s="6" t="n">
-        <v>0.03413550021497957</v>
+        <v>0.03104162513302836</v>
       </c>
       <c r="Q88" s="5" t="n">
         <v>11</v>
@@ -6155,19 +6155,19 @@
         <v>9878</v>
       </c>
       <c r="S88" s="5" t="n">
-        <v>5300</v>
+        <v>5004</v>
       </c>
       <c r="T88" s="5" t="n">
-        <v>17880</v>
+        <v>17351</v>
       </c>
       <c r="U88" s="6" t="n">
         <v>0.01455749658790436</v>
       </c>
       <c r="V88" s="6" t="n">
-        <v>0.007810554205466108</v>
+        <v>0.007374939955130736</v>
       </c>
       <c r="W88" s="6" t="n">
-        <v>0.02634982673116193</v>
+        <v>0.02557001943228063</v>
       </c>
     </row>
     <row r="89">
@@ -6184,19 +6184,19 @@
         <v>10609</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>5708</v>
+        <v>5245</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>18358</v>
+        <v>18004</v>
       </c>
       <c r="G89" s="6" t="n">
-        <v>0.03299399027620046</v>
+        <v>0.03299399027620045</v>
       </c>
       <c r="H89" s="6" t="n">
-        <v>0.01775211707291974</v>
+        <v>0.01631158886591383</v>
       </c>
       <c r="I89" s="6" t="n">
-        <v>0.05709240501726336</v>
+        <v>0.05599269829616142</v>
       </c>
       <c r="J89" s="5" t="n">
         <v>21</v>
@@ -6205,19 +6205,19 @@
         <v>17500</v>
       </c>
       <c r="L89" s="5" t="n">
-        <v>10916</v>
+        <v>10614</v>
       </c>
       <c r="M89" s="5" t="n">
-        <v>27730</v>
+        <v>27772</v>
       </c>
       <c r="N89" s="6" t="n">
         <v>0.04901527550739479</v>
       </c>
       <c r="O89" s="6" t="n">
-        <v>0.03057587787646901</v>
+        <v>0.02972898323556534</v>
       </c>
       <c r="P89" s="6" t="n">
-        <v>0.07766915521977186</v>
+        <v>0.07778734772646265</v>
       </c>
       <c r="Q89" s="5" t="n">
         <v>32</v>
@@ -6226,19 +6226,19 @@
         <v>28109</v>
       </c>
       <c r="S89" s="5" t="n">
-        <v>19493</v>
+        <v>18999</v>
       </c>
       <c r="T89" s="5" t="n">
-        <v>39212</v>
+        <v>40094</v>
       </c>
       <c r="U89" s="6" t="n">
-        <v>0.04142349363145969</v>
+        <v>0.04142349363145967</v>
       </c>
       <c r="V89" s="6" t="n">
-        <v>0.02872593595798681</v>
+        <v>0.02799835668877454</v>
       </c>
       <c r="W89" s="6" t="n">
-        <v>0.05778638164358244</v>
+        <v>0.05908570254410631</v>
       </c>
     </row>
     <row r="90">
@@ -6255,19 +6255,19 @@
         <v>10937</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>4934</v>
+        <v>4671</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>22292</v>
+        <v>20121</v>
       </c>
       <c r="G90" s="6" t="n">
         <v>0.03401366308125187</v>
       </c>
       <c r="H90" s="6" t="n">
-        <v>0.01534625887722355</v>
+        <v>0.01452578929851697</v>
       </c>
       <c r="I90" s="6" t="n">
-        <v>0.06932703104268087</v>
+        <v>0.0625769090227075</v>
       </c>
       <c r="J90" s="5" t="n">
         <v>6</v>
@@ -6276,19 +6276,19 @@
         <v>5257</v>
       </c>
       <c r="L90" s="5" t="n">
-        <v>2108</v>
+        <v>2142</v>
       </c>
       <c r="M90" s="5" t="n">
-        <v>11968</v>
+        <v>11955</v>
       </c>
       <c r="N90" s="6" t="n">
         <v>0.01472370451003333</v>
       </c>
       <c r="O90" s="6" t="n">
-        <v>0.005904483618272498</v>
+        <v>0.006000926660389276</v>
       </c>
       <c r="P90" s="6" t="n">
-        <v>0.03352028146607552</v>
+        <v>0.03348615741548817</v>
       </c>
       <c r="Q90" s="5" t="n">
         <v>15</v>
@@ -6297,19 +6297,19 @@
         <v>16194</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>9083</v>
+        <v>8699</v>
       </c>
       <c r="T90" s="5" t="n">
-        <v>26950</v>
+        <v>27409</v>
       </c>
       <c r="U90" s="6" t="n">
-        <v>0.02386436680742377</v>
+        <v>0.02386436680742376</v>
       </c>
       <c r="V90" s="6" t="n">
-        <v>0.01338509517176644</v>
+        <v>0.01281943724133971</v>
       </c>
       <c r="W90" s="6" t="n">
-        <v>0.03971593940836644</v>
+        <v>0.04039228862269691</v>
       </c>
     </row>
     <row r="91">
@@ -6326,19 +6326,19 @@
         <v>21312</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>11434</v>
+        <v>12452</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>35058</v>
+        <v>35417</v>
       </c>
       <c r="G91" s="6" t="n">
-        <v>0.06627955687479624</v>
+        <v>0.06627955687479622</v>
       </c>
       <c r="H91" s="6" t="n">
-        <v>0.03555914510639778</v>
+        <v>0.0387271990335443</v>
       </c>
       <c r="I91" s="6" t="n">
-        <v>0.1090290941710786</v>
+        <v>0.110145921480704</v>
       </c>
       <c r="J91" s="5" t="n">
         <v>25</v>
@@ -6347,19 +6347,19 @@
         <v>20097</v>
       </c>
       <c r="L91" s="5" t="n">
-        <v>13007</v>
+        <v>13398</v>
       </c>
       <c r="M91" s="5" t="n">
-        <v>30411</v>
+        <v>30286</v>
       </c>
       <c r="N91" s="6" t="n">
         <v>0.05629082431389949</v>
       </c>
       <c r="O91" s="6" t="n">
-        <v>0.0364317466114407</v>
+        <v>0.0375261983848241</v>
       </c>
       <c r="P91" s="6" t="n">
-        <v>0.08517919710797799</v>
+        <v>0.08482904121179684</v>
       </c>
       <c r="Q91" s="5" t="n">
         <v>41</v>
@@ -6368,19 +6368,19 @@
         <v>41409</v>
       </c>
       <c r="S91" s="5" t="n">
-        <v>30603</v>
+        <v>29302</v>
       </c>
       <c r="T91" s="5" t="n">
-        <v>57446</v>
+        <v>58801</v>
       </c>
       <c r="U91" s="6" t="n">
         <v>0.06102404500906128</v>
       </c>
       <c r="V91" s="6" t="n">
-        <v>0.0450992146156301</v>
+        <v>0.04318242633858821</v>
       </c>
       <c r="W91" s="6" t="n">
-        <v>0.08465825769789671</v>
+        <v>0.08665413809275549</v>
       </c>
     </row>
     <row r="92">
@@ -6397,19 +6397,19 @@
         <v>21698</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>13977</v>
+        <v>14075</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>34116</v>
+        <v>32827</v>
       </c>
       <c r="G92" s="6" t="n">
-        <v>0.06748023039097469</v>
+        <v>0.06748023039097467</v>
       </c>
       <c r="H92" s="6" t="n">
-        <v>0.04347007432787463</v>
+        <v>0.04377424612806173</v>
       </c>
       <c r="I92" s="6" t="n">
-        <v>0.1060993402033397</v>
+        <v>0.1020907770984382</v>
       </c>
       <c r="J92" s="5" t="n">
         <v>40</v>
@@ -6418,19 +6418,19 @@
         <v>34292</v>
       </c>
       <c r="L92" s="5" t="n">
-        <v>24726</v>
+        <v>25181</v>
       </c>
       <c r="M92" s="5" t="n">
-        <v>47634</v>
+        <v>48223</v>
       </c>
       <c r="N92" s="6" t="n">
-        <v>0.09604935559387323</v>
+        <v>0.09604935559387322</v>
       </c>
       <c r="O92" s="6" t="n">
-        <v>0.06925452340836306</v>
+        <v>0.07053117708883927</v>
       </c>
       <c r="P92" s="6" t="n">
-        <v>0.1334193647143961</v>
+        <v>0.1350681737694749</v>
       </c>
       <c r="Q92" s="5" t="n">
         <v>59</v>
@@ -6439,19 +6439,19 @@
         <v>55990</v>
       </c>
       <c r="S92" s="5" t="n">
-        <v>43610</v>
+        <v>43774</v>
       </c>
       <c r="T92" s="5" t="n">
-        <v>71551</v>
+        <v>72930</v>
       </c>
       <c r="U92" s="6" t="n">
-        <v>0.08251170466282381</v>
+        <v>0.08251170466282379</v>
       </c>
       <c r="V92" s="6" t="n">
-        <v>0.06426838243353336</v>
+        <v>0.06450866628797036</v>
       </c>
       <c r="W92" s="6" t="n">
-        <v>0.1054434985331657</v>
+        <v>0.1074758352586393</v>
       </c>
     </row>
     <row r="93">
@@ -6468,19 +6468,19 @@
         <v>220879</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>201236</v>
+        <v>202961</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>239709</v>
+        <v>239525</v>
       </c>
       <c r="G93" s="6" t="n">
-        <v>0.6869360244783866</v>
+        <v>0.6869360244783865</v>
       </c>
       <c r="H93" s="6" t="n">
-        <v>0.6258433718576105</v>
+        <v>0.6312099669344333</v>
       </c>
       <c r="I93" s="6" t="n">
-        <v>0.7454962246310497</v>
+        <v>0.7449251245475538</v>
       </c>
       <c r="J93" s="5" t="n">
         <v>311</v>
@@ -6489,19 +6489,19 @@
         <v>240713</v>
       </c>
       <c r="L93" s="5" t="n">
-        <v>220987</v>
+        <v>221510</v>
       </c>
       <c r="M93" s="5" t="n">
-        <v>257152</v>
+        <v>256775</v>
       </c>
       <c r="N93" s="6" t="n">
-        <v>0.6742216967963396</v>
+        <v>0.6742216967963395</v>
       </c>
       <c r="O93" s="6" t="n">
-        <v>0.6189694982915668</v>
+        <v>0.6204347293633109</v>
       </c>
       <c r="P93" s="6" t="n">
-        <v>0.720264432324623</v>
+        <v>0.7192082018574537</v>
       </c>
       <c r="Q93" s="5" t="n">
         <v>500</v>
@@ -6510,19 +6510,19 @@
         <v>461593</v>
       </c>
       <c r="S93" s="5" t="n">
-        <v>435211</v>
+        <v>437399</v>
       </c>
       <c r="T93" s="5" t="n">
-        <v>484780</v>
+        <v>487643</v>
       </c>
       <c r="U93" s="6" t="n">
-        <v>0.6802464570492393</v>
+        <v>0.6802464570492391</v>
       </c>
       <c r="V93" s="6" t="n">
-        <v>0.6413674799926778</v>
+        <v>0.6445909988894513</v>
       </c>
       <c r="W93" s="6" t="n">
-        <v>0.7144156881205854</v>
+        <v>0.7186351988356982</v>
       </c>
     </row>
     <row r="94">
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="M102" s="5" t="n">
-        <v>6234</v>
+        <v>6170</v>
       </c>
       <c r="N102" s="6" t="n">
         <v>0.002521070616756657</v>
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="P102" s="6" t="n">
-        <v>0.01615743953874068</v>
+        <v>0.01599121776628712</v>
       </c>
       <c r="Q102" s="5" t="n">
         <v>1</v>
@@ -6980,16 +6980,16 @@
         <v>0</v>
       </c>
       <c r="T102" s="5" t="n">
-        <v>4529</v>
+        <v>6615</v>
       </c>
       <c r="U102" s="6" t="n">
-        <v>0.00123750426583961</v>
+        <v>0.001237504265839609</v>
       </c>
       <c r="V102" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W102" s="6" t="n">
-        <v>0.005761684623006692</v>
+        <v>0.008416108826708917</v>
       </c>
     </row>
     <row r="103">
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="5" t="n">
-        <v>3100</v>
+        <v>3439</v>
       </c>
       <c r="N103" s="6" t="n">
         <v>0.001576383984190562</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="P103" s="6" t="n">
-        <v>0.008034832396162013</v>
+        <v>0.008914336619175373</v>
       </c>
       <c r="Q103" s="5" t="n">
         <v>1</v>
@@ -7043,16 +7043,16 @@
         <v>0</v>
       </c>
       <c r="T103" s="5" t="n">
-        <v>3097</v>
+        <v>4162</v>
       </c>
       <c r="U103" s="6" t="n">
-        <v>0.0007737910600642874</v>
+        <v>0.0007737910600642873</v>
       </c>
       <c r="V103" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W103" s="6" t="n">
-        <v>0.003940720031927926</v>
+        <v>0.005295342215745948</v>
       </c>
     </row>
     <row r="104">
@@ -7069,19 +7069,19 @@
         <v>6833</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>3043</v>
+        <v>3105</v>
       </c>
       <c r="F104" s="5" t="n">
-        <v>14939</v>
+        <v>14314</v>
       </c>
       <c r="G104" s="6" t="n">
         <v>0.01707522379139635</v>
       </c>
       <c r="H104" s="6" t="n">
-        <v>0.007604758271734189</v>
+        <v>0.007758955348789267</v>
       </c>
       <c r="I104" s="6" t="n">
-        <v>0.03732978198439568</v>
+        <v>0.03576806336177442</v>
       </c>
       <c r="J104" s="5" t="n">
         <v>3</v>
@@ -7090,19 +7090,19 @@
         <v>2494</v>
       </c>
       <c r="L104" s="5" t="n">
-        <v>786</v>
+        <v>805</v>
       </c>
       <c r="M104" s="5" t="n">
-        <v>6734</v>
+        <v>7548</v>
       </c>
       <c r="N104" s="6" t="n">
         <v>0.006464079338688123</v>
       </c>
       <c r="O104" s="6" t="n">
-        <v>0.002036029287838577</v>
+        <v>0.002085311895002475</v>
       </c>
       <c r="P104" s="6" t="n">
-        <v>0.01745218577660777</v>
+        <v>0.01956432884972095</v>
       </c>
       <c r="Q104" s="5" t="n">
         <v>10</v>
@@ -7111,19 +7111,19 @@
         <v>9327</v>
       </c>
       <c r="S104" s="5" t="n">
-        <v>4375</v>
+        <v>4832</v>
       </c>
       <c r="T104" s="5" t="n">
-        <v>16888</v>
+        <v>16763</v>
       </c>
       <c r="U104" s="6" t="n">
         <v>0.01186658884147173</v>
       </c>
       <c r="V104" s="6" t="n">
-        <v>0.005565868253125952</v>
+        <v>0.006147472484376277</v>
       </c>
       <c r="W104" s="6" t="n">
-        <v>0.02148574123211835</v>
+        <v>0.02132602481272591</v>
       </c>
     </row>
     <row r="105">
@@ -7140,19 +7140,19 @@
         <v>58123</v>
       </c>
       <c r="E105" s="5" t="n">
-        <v>44806</v>
+        <v>45172</v>
       </c>
       <c r="F105" s="5" t="n">
-        <v>72743</v>
+        <v>73943</v>
       </c>
       <c r="G105" s="6" t="n">
         <v>0.1452382611403381</v>
       </c>
       <c r="H105" s="6" t="n">
-        <v>0.1119621273705248</v>
+        <v>0.1128759027663041</v>
       </c>
       <c r="I105" s="6" t="n">
-        <v>0.1817712627903178</v>
+        <v>0.1847715735450672</v>
       </c>
       <c r="J105" s="5" t="n">
         <v>47</v>
@@ -7161,19 +7161,19 @@
         <v>33600</v>
       </c>
       <c r="L105" s="5" t="n">
-        <v>25293</v>
+        <v>24961</v>
       </c>
       <c r="M105" s="5" t="n">
-        <v>44567</v>
+        <v>44087</v>
       </c>
       <c r="N105" s="6" t="n">
         <v>0.08708582958944922</v>
       </c>
       <c r="O105" s="6" t="n">
-        <v>0.06555408247357498</v>
+        <v>0.0646957070754856</v>
       </c>
       <c r="P105" s="6" t="n">
-        <v>0.1155100312078477</v>
+        <v>0.1142654460641299</v>
       </c>
       <c r="Q105" s="5" t="n">
         <v>109</v>
@@ -7182,19 +7182,19 @@
         <v>91723</v>
       </c>
       <c r="S105" s="5" t="n">
-        <v>75222</v>
+        <v>75137</v>
       </c>
       <c r="T105" s="5" t="n">
-        <v>109334</v>
+        <v>108593</v>
       </c>
       <c r="U105" s="6" t="n">
-        <v>0.116693292334287</v>
+        <v>0.1166932923342869</v>
       </c>
       <c r="V105" s="6" t="n">
-        <v>0.09570069352030958</v>
+        <v>0.09559295693761233</v>
       </c>
       <c r="W105" s="6" t="n">
-        <v>0.139098684027876</v>
+        <v>0.138157022523318</v>
       </c>
     </row>
     <row r="106">
@@ -7211,19 +7211,19 @@
         <v>335232</v>
       </c>
       <c r="E106" s="5" t="n">
-        <v>320003</v>
+        <v>319606</v>
       </c>
       <c r="F106" s="5" t="n">
-        <v>348149</v>
+        <v>349107</v>
       </c>
       <c r="G106" s="6" t="n">
-        <v>0.8376865150682655</v>
+        <v>0.8376865150682654</v>
       </c>
       <c r="H106" s="6" t="n">
-        <v>0.7996328626494241</v>
+        <v>0.7986384146335452</v>
       </c>
       <c r="I106" s="6" t="n">
-        <v>0.8699645824147126</v>
+        <v>0.8723583384322529</v>
       </c>
       <c r="J106" s="5" t="n">
         <v>446</v>
@@ -7232,19 +7232,19 @@
         <v>348152</v>
       </c>
       <c r="L106" s="5" t="n">
-        <v>337322</v>
+        <v>337160</v>
       </c>
       <c r="M106" s="5" t="n">
-        <v>358012</v>
+        <v>357371</v>
       </c>
       <c r="N106" s="6" t="n">
         <v>0.9023526364709155</v>
       </c>
       <c r="O106" s="6" t="n">
-        <v>0.874283214806204</v>
+        <v>0.8738639481805801</v>
       </c>
       <c r="P106" s="6" t="n">
-        <v>0.9279073625680574</v>
+        <v>0.9262463485150236</v>
       </c>
       <c r="Q106" s="5" t="n">
         <v>770</v>
@@ -7253,19 +7253,19 @@
         <v>683384</v>
       </c>
       <c r="S106" s="5" t="n">
-        <v>664902</v>
+        <v>664163</v>
       </c>
       <c r="T106" s="5" t="n">
-        <v>700964</v>
+        <v>700122</v>
       </c>
       <c r="U106" s="6" t="n">
         <v>0.8694288234983375</v>
       </c>
       <c r="V106" s="6" t="n">
-        <v>0.8459156356590597</v>
+        <v>0.8449743782178927</v>
       </c>
       <c r="W106" s="6" t="n">
-        <v>0.8917949311647673</v>
+        <v>0.8907239942306374</v>
       </c>
     </row>
     <row r="107">
@@ -7357,19 +7357,19 @@
         <v>13306</v>
       </c>
       <c r="E108" s="5" t="n">
-        <v>6897</v>
+        <v>7218</v>
       </c>
       <c r="F108" s="5" t="n">
-        <v>23407</v>
+        <v>23783</v>
       </c>
       <c r="G108" s="6" t="n">
-        <v>0.007387825162858147</v>
+        <v>0.007387825162858146</v>
       </c>
       <c r="H108" s="6" t="n">
-        <v>0.003829144030056767</v>
+        <v>0.004007551433352243</v>
       </c>
       <c r="I108" s="6" t="n">
-        <v>0.01299595774948259</v>
+        <v>0.01320463761378591</v>
       </c>
       <c r="J108" s="5" t="n">
         <v>14</v>
@@ -7378,19 +7378,19 @@
         <v>12294</v>
       </c>
       <c r="L108" s="5" t="n">
-        <v>6867</v>
+        <v>6831</v>
       </c>
       <c r="M108" s="5" t="n">
-        <v>24119</v>
+        <v>22642</v>
       </c>
       <c r="N108" s="6" t="n">
-        <v>0.006622281600875856</v>
+        <v>0.006622281600875857</v>
       </c>
       <c r="O108" s="6" t="n">
-        <v>0.003698793221948183</v>
+        <v>0.003679594422906465</v>
       </c>
       <c r="P108" s="6" t="n">
-        <v>0.01299166034241264</v>
+        <v>0.01219593635336467</v>
       </c>
       <c r="Q108" s="5" t="n">
         <v>26</v>
@@ -7399,19 +7399,19 @@
         <v>25600</v>
       </c>
       <c r="S108" s="5" t="n">
-        <v>16255</v>
+        <v>16184</v>
       </c>
       <c r="T108" s="5" t="n">
-        <v>37959</v>
+        <v>37377</v>
       </c>
       <c r="U108" s="6" t="n">
         <v>0.006999254996604597</v>
       </c>
       <c r="V108" s="6" t="n">
-        <v>0.004444344427126184</v>
+        <v>0.004424872009864023</v>
       </c>
       <c r="W108" s="6" t="n">
-        <v>0.01037816316498866</v>
+        <v>0.01021913008351925</v>
       </c>
     </row>
     <row r="109">
@@ -7428,19 +7428,19 @@
         <v>25864</v>
       </c>
       <c r="E109" s="5" t="n">
-        <v>16143</v>
+        <v>16765</v>
       </c>
       <c r="F109" s="5" t="n">
-        <v>43679</v>
+        <v>41710</v>
       </c>
       <c r="G109" s="6" t="n">
-        <v>0.01436055890113442</v>
+        <v>0.01436055890113441</v>
       </c>
       <c r="H109" s="6" t="n">
-        <v>0.008962909857172822</v>
+        <v>0.009308266036869616</v>
       </c>
       <c r="I109" s="6" t="n">
-        <v>0.0242518061292316</v>
+        <v>0.02315864881784567</v>
       </c>
       <c r="J109" s="5" t="n">
         <v>22</v>
@@ -7449,19 +7449,19 @@
         <v>17446</v>
       </c>
       <c r="L109" s="5" t="n">
-        <v>11501</v>
+        <v>10855</v>
       </c>
       <c r="M109" s="5" t="n">
-        <v>26846</v>
+        <v>26222</v>
       </c>
       <c r="N109" s="6" t="n">
-        <v>0.009397495455906008</v>
+        <v>0.009397495455906006</v>
       </c>
       <c r="O109" s="6" t="n">
-        <v>0.006195095758241243</v>
+        <v>0.00584685574077407</v>
       </c>
       <c r="P109" s="6" t="n">
-        <v>0.0144607623801467</v>
+        <v>0.01412460551335726</v>
       </c>
       <c r="Q109" s="5" t="n">
         <v>43</v>
@@ -7470,19 +7470,19 @@
         <v>43311</v>
       </c>
       <c r="S109" s="5" t="n">
-        <v>30291</v>
+        <v>30764</v>
       </c>
       <c r="T109" s="5" t="n">
-        <v>59735</v>
+        <v>62697</v>
       </c>
       <c r="U109" s="6" t="n">
-        <v>0.01184143590956267</v>
+        <v>0.01184143590956266</v>
       </c>
       <c r="V109" s="6" t="n">
-        <v>0.008281850485999959</v>
+        <v>0.00841109796494755</v>
       </c>
       <c r="W109" s="6" t="n">
-        <v>0.01633183953601186</v>
+        <v>0.01714176754422093</v>
       </c>
     </row>
     <row r="110">
@@ -7515,16 +7515,16 @@
         <v>0</v>
       </c>
       <c r="M110" s="5" t="n">
-        <v>3605</v>
+        <v>4299</v>
       </c>
       <c r="N110" s="6" t="n">
-        <v>0.0003849524490711442</v>
+        <v>0.0003849524490711441</v>
       </c>
       <c r="O110" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P110" s="6" t="n">
-        <v>0.001941919567649883</v>
+        <v>0.002315579962771117</v>
       </c>
       <c r="Q110" s="5" t="n">
         <v>1</v>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="T110" s="5" t="n">
-        <v>3572</v>
+        <v>3576</v>
       </c>
       <c r="U110" s="6" t="n">
         <v>0.0001953919339978018</v>
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="W110" s="6" t="n">
-        <v>0.0009765974814307807</v>
+        <v>0.0009776528890220453</v>
       </c>
     </row>
     <row r="111">
@@ -7562,19 +7562,19 @@
         <v>4952</v>
       </c>
       <c r="E111" s="5" t="n">
-        <v>1132</v>
+        <v>1191</v>
       </c>
       <c r="F111" s="5" t="n">
-        <v>12471</v>
+        <v>12501</v>
       </c>
       <c r="G111" s="6" t="n">
-        <v>0.002749719012353593</v>
+        <v>0.002749719012353592</v>
       </c>
       <c r="H111" s="6" t="n">
-        <v>0.0006285871995114084</v>
+        <v>0.0006609983191208529</v>
       </c>
       <c r="I111" s="6" t="n">
-        <v>0.006924188487997988</v>
+        <v>0.006940717145083245</v>
       </c>
       <c r="J111" s="5" t="n">
         <v>5</v>
@@ -7583,19 +7583,19 @@
         <v>3979</v>
       </c>
       <c r="L111" s="5" t="n">
-        <v>1622</v>
+        <v>1627</v>
       </c>
       <c r="M111" s="5" t="n">
-        <v>9614</v>
+        <v>9272</v>
       </c>
       <c r="N111" s="6" t="n">
         <v>0.002143153965493668</v>
       </c>
       <c r="O111" s="6" t="n">
-        <v>0.0008739238416476267</v>
+        <v>0.0008766066287666221</v>
       </c>
       <c r="P111" s="6" t="n">
-        <v>0.005178744421662657</v>
+        <v>0.004994219284523739</v>
       </c>
       <c r="Q111" s="5" t="n">
         <v>9</v>
@@ -7604,19 +7604,19 @@
         <v>8931</v>
       </c>
       <c r="S111" s="5" t="n">
-        <v>4189</v>
+        <v>4173</v>
       </c>
       <c r="T111" s="5" t="n">
-        <v>17314</v>
+        <v>17620</v>
       </c>
       <c r="U111" s="6" t="n">
         <v>0.002441842239813501</v>
       </c>
       <c r="V111" s="6" t="n">
-        <v>0.001145202135773195</v>
+        <v>0.001140986045026201</v>
       </c>
       <c r="W111" s="6" t="n">
-        <v>0.004733651087663793</v>
+        <v>0.004817383698464197</v>
       </c>
     </row>
     <row r="112">
@@ -7646,19 +7646,19 @@
         <v>4047</v>
       </c>
       <c r="L112" s="5" t="n">
-        <v>1427</v>
+        <v>1468</v>
       </c>
       <c r="M112" s="5" t="n">
-        <v>9682</v>
+        <v>9090</v>
       </c>
       <c r="N112" s="6" t="n">
         <v>0.002179792776007293</v>
       </c>
       <c r="O112" s="6" t="n">
-        <v>0.0007687884124119722</v>
+        <v>0.0007907727327226135</v>
       </c>
       <c r="P112" s="6" t="n">
-        <v>0.005215403489923546</v>
+        <v>0.004896370811650737</v>
       </c>
       <c r="Q112" s="5" t="n">
         <v>5</v>
@@ -7667,19 +7667,19 @@
         <v>4047</v>
       </c>
       <c r="S112" s="5" t="n">
-        <v>1486</v>
+        <v>1439</v>
       </c>
       <c r="T112" s="5" t="n">
-        <v>9555</v>
+        <v>8819</v>
       </c>
       <c r="U112" s="6" t="n">
         <v>0.001106406589297443</v>
       </c>
       <c r="V112" s="6" t="n">
-        <v>0.0004063686808793631</v>
+        <v>0.0003934573964982785</v>
       </c>
       <c r="W112" s="6" t="n">
-        <v>0.002612378076311021</v>
+        <v>0.002411095274949275</v>
       </c>
     </row>
     <row r="113">
@@ -7696,19 +7696,19 @@
         <v>19827</v>
       </c>
       <c r="E113" s="5" t="n">
-        <v>10952</v>
+        <v>11202</v>
       </c>
       <c r="F113" s="5" t="n">
-        <v>31525</v>
+        <v>30294</v>
       </c>
       <c r="G113" s="6" t="n">
         <v>0.01100856623623347</v>
       </c>
       <c r="H113" s="6" t="n">
-        <v>0.006081025092462665</v>
+        <v>0.006219555706072443</v>
       </c>
       <c r="I113" s="6" t="n">
-        <v>0.017503164977914</v>
+        <v>0.01681979720478796</v>
       </c>
       <c r="J113" s="5" t="n">
         <v>31</v>
@@ -7717,19 +7717,19 @@
         <v>20531</v>
       </c>
       <c r="L113" s="5" t="n">
-        <v>13815</v>
+        <v>14323</v>
       </c>
       <c r="M113" s="5" t="n">
-        <v>30444</v>
+        <v>30004</v>
       </c>
       <c r="N113" s="6" t="n">
         <v>0.01105917736811745</v>
       </c>
       <c r="O113" s="6" t="n">
-        <v>0.007441414656848794</v>
+        <v>0.007714870154426316</v>
       </c>
       <c r="P113" s="6" t="n">
-        <v>0.01639868830700601</v>
+        <v>0.01616176997142525</v>
       </c>
       <c r="Q113" s="5" t="n">
         <v>49</v>
@@ -7738,19 +7738,19 @@
         <v>40358</v>
       </c>
       <c r="S113" s="5" t="n">
-        <v>29856</v>
+        <v>30002</v>
       </c>
       <c r="T113" s="5" t="n">
-        <v>54390</v>
+        <v>55182</v>
       </c>
       <c r="U113" s="6" t="n">
         <v>0.01103425514135536</v>
       </c>
       <c r="V113" s="6" t="n">
-        <v>0.008162937268201383</v>
+        <v>0.008202665286527208</v>
       </c>
       <c r="W113" s="6" t="n">
-        <v>0.01487051475432739</v>
+        <v>0.01508701607824651</v>
       </c>
     </row>
     <row r="114">
@@ -7767,19 +7767,19 @@
         <v>10347</v>
       </c>
       <c r="E114" s="5" t="n">
-        <v>5626</v>
+        <v>4946</v>
       </c>
       <c r="F114" s="5" t="n">
-        <v>19227</v>
+        <v>19462</v>
       </c>
       <c r="G114" s="6" t="n">
-        <v>0.005744760358256441</v>
+        <v>0.00574476035825644</v>
       </c>
       <c r="H114" s="6" t="n">
-        <v>0.003123737180875038</v>
+        <v>0.002745959721293928</v>
       </c>
       <c r="I114" s="6" t="n">
-        <v>0.01067539426578265</v>
+        <v>0.01080568211453425</v>
       </c>
       <c r="J114" s="5" t="n">
         <v>18</v>
@@ -7788,19 +7788,19 @@
         <v>12601</v>
       </c>
       <c r="L114" s="5" t="n">
-        <v>7285</v>
+        <v>7656</v>
       </c>
       <c r="M114" s="5" t="n">
-        <v>19552</v>
+        <v>19736</v>
       </c>
       <c r="N114" s="6" t="n">
-        <v>0.006787511513154146</v>
+        <v>0.006787511513154145</v>
       </c>
       <c r="O114" s="6" t="n">
-        <v>0.003923989494976064</v>
+        <v>0.004123738902010054</v>
       </c>
       <c r="P114" s="6" t="n">
-        <v>0.01053200645020601</v>
+        <v>0.01063084793372213</v>
       </c>
       <c r="Q114" s="5" t="n">
         <v>28</v>
@@ -7809,19 +7809,19 @@
         <v>22948</v>
       </c>
       <c r="S114" s="5" t="n">
-        <v>15299</v>
+        <v>15209</v>
       </c>
       <c r="T114" s="5" t="n">
-        <v>33606</v>
+        <v>32909</v>
       </c>
       <c r="U114" s="6" t="n">
         <v>0.006274033948606425</v>
       </c>
       <c r="V114" s="6" t="n">
-        <v>0.004182979047226372</v>
+        <v>0.004158234182362188</v>
       </c>
       <c r="W114" s="6" t="n">
-        <v>0.009188149646375808</v>
+        <v>0.008997437363480723</v>
       </c>
     </row>
     <row r="115">
@@ -7838,19 +7838,19 @@
         <v>46656</v>
       </c>
       <c r="E115" s="5" t="n">
-        <v>31640</v>
+        <v>31338</v>
       </c>
       <c r="F115" s="5" t="n">
-        <v>69353</v>
+        <v>68300</v>
       </c>
       <c r="G115" s="6" t="n">
-        <v>0.0259045542560978</v>
+        <v>0.02590455425609779</v>
       </c>
       <c r="H115" s="6" t="n">
-        <v>0.01756705076193396</v>
+        <v>0.01739983461176391</v>
       </c>
       <c r="I115" s="6" t="n">
-        <v>0.03850628951698325</v>
+        <v>0.03792153438576237</v>
       </c>
       <c r="J115" s="5" t="n">
         <v>63</v>
@@ -7859,19 +7859,19 @@
         <v>51646</v>
       </c>
       <c r="L115" s="5" t="n">
-        <v>38650</v>
+        <v>38754</v>
       </c>
       <c r="M115" s="5" t="n">
-        <v>69628</v>
+        <v>67778</v>
       </c>
       <c r="N115" s="6" t="n">
-        <v>0.02781932246952038</v>
+        <v>0.02781932246952037</v>
       </c>
       <c r="O115" s="6" t="n">
-        <v>0.02081877415051992</v>
+        <v>0.0208750369597019</v>
       </c>
       <c r="P115" s="6" t="n">
-        <v>0.03750562723080162</v>
+        <v>0.03650866400726548</v>
       </c>
       <c r="Q115" s="5" t="n">
         <v>99</v>
@@ -7880,19 +7880,19 @@
         <v>98302</v>
       </c>
       <c r="S115" s="5" t="n">
-        <v>76653</v>
+        <v>77995</v>
       </c>
       <c r="T115" s="5" t="n">
-        <v>127876</v>
+        <v>123621</v>
       </c>
       <c r="U115" s="6" t="n">
         <v>0.02687644121325548</v>
       </c>
       <c r="V115" s="6" t="n">
-        <v>0.02095741968128439</v>
+        <v>0.02132433989766605</v>
       </c>
       <c r="W115" s="6" t="n">
-        <v>0.03496203155426294</v>
+        <v>0.03379876192574351</v>
       </c>
     </row>
     <row r="116">
@@ -7909,19 +7909,19 @@
         <v>37958</v>
       </c>
       <c r="E116" s="5" t="n">
-        <v>26521</v>
+        <v>26223</v>
       </c>
       <c r="F116" s="5" t="n">
-        <v>55067</v>
+        <v>53651</v>
       </c>
       <c r="G116" s="6" t="n">
         <v>0.02107492335922345</v>
       </c>
       <c r="H116" s="6" t="n">
-        <v>0.01472531826333741</v>
+        <v>0.01455984409673719</v>
       </c>
       <c r="I116" s="6" t="n">
-        <v>0.030574655366949</v>
+        <v>0.0297882143562393</v>
       </c>
       <c r="J116" s="5" t="n">
         <v>32</v>
@@ -7930,19 +7930,19 @@
         <v>21671</v>
       </c>
       <c r="L116" s="5" t="n">
-        <v>14593</v>
+        <v>14901</v>
       </c>
       <c r="M116" s="5" t="n">
-        <v>30106</v>
+        <v>30828</v>
       </c>
       <c r="N116" s="6" t="n">
         <v>0.01167330234843548</v>
       </c>
       <c r="O116" s="6" t="n">
-        <v>0.007860583459418065</v>
+        <v>0.008026437478470266</v>
       </c>
       <c r="P116" s="6" t="n">
-        <v>0.01621689786273691</v>
+        <v>0.01660575203364341</v>
       </c>
       <c r="Q116" s="5" t="n">
         <v>66</v>
@@ -7951,19 +7951,19 @@
         <v>59629</v>
       </c>
       <c r="S116" s="5" t="n">
-        <v>45868</v>
+        <v>44618</v>
       </c>
       <c r="T116" s="5" t="n">
-        <v>78004</v>
+        <v>76461</v>
       </c>
       <c r="U116" s="6" t="n">
         <v>0.01630290303192134</v>
       </c>
       <c r="V116" s="6" t="n">
-        <v>0.01254064180642282</v>
+        <v>0.01219883815819909</v>
       </c>
       <c r="W116" s="6" t="n">
-        <v>0.021326916459915</v>
+        <v>0.02090498123097233</v>
       </c>
     </row>
     <row r="117">
@@ -7980,19 +7980,19 @@
         <v>106492</v>
       </c>
       <c r="E117" s="5" t="n">
-        <v>83642</v>
+        <v>81877</v>
       </c>
       <c r="F117" s="5" t="n">
-        <v>136455</v>
+        <v>135049</v>
       </c>
       <c r="G117" s="6" t="n">
-        <v>0.05912703187371101</v>
+        <v>0.059127031873711</v>
       </c>
       <c r="H117" s="6" t="n">
-        <v>0.04644002385445052</v>
+        <v>0.04546019219403304</v>
       </c>
       <c r="I117" s="6" t="n">
-        <v>0.07576303643348066</v>
+        <v>0.07498242926965154</v>
       </c>
       <c r="J117" s="5" t="n">
         <v>138</v>
@@ -8001,19 +8001,19 @@
         <v>92052</v>
       </c>
       <c r="L117" s="5" t="n">
-        <v>77473</v>
+        <v>76469</v>
       </c>
       <c r="M117" s="5" t="n">
-        <v>109935</v>
+        <v>108789</v>
       </c>
       <c r="N117" s="6" t="n">
-        <v>0.04958412864575931</v>
+        <v>0.0495841286457593</v>
       </c>
       <c r="O117" s="6" t="n">
-        <v>0.04173104536286793</v>
+        <v>0.04119028891105155</v>
       </c>
       <c r="P117" s="6" t="n">
-        <v>0.05921706998896666</v>
+        <v>0.05859971165804222</v>
       </c>
       <c r="Q117" s="5" t="n">
         <v>219</v>
@@ -8022,19 +8022,19 @@
         <v>198544</v>
       </c>
       <c r="S117" s="5" t="n">
-        <v>171226</v>
+        <v>170991</v>
       </c>
       <c r="T117" s="5" t="n">
-        <v>235731</v>
+        <v>231325</v>
       </c>
       <c r="U117" s="6" t="n">
         <v>0.05428330033709531</v>
       </c>
       <c r="V117" s="6" t="n">
-        <v>0.0468143609255281</v>
+        <v>0.04675005626454322</v>
       </c>
       <c r="W117" s="6" t="n">
-        <v>0.06445049204130145</v>
+        <v>0.06324571141910372</v>
       </c>
     </row>
     <row r="118">
@@ -8051,19 +8051,19 @@
         <v>204442</v>
       </c>
       <c r="E118" s="5" t="n">
-        <v>179569</v>
+        <v>178957</v>
       </c>
       <c r="F118" s="5" t="n">
-        <v>232604</v>
+        <v>232932</v>
       </c>
       <c r="G118" s="6" t="n">
         <v>0.1135112534242339</v>
       </c>
       <c r="H118" s="6" t="n">
-        <v>0.0997012033048425</v>
+        <v>0.09936120327267932</v>
       </c>
       <c r="I118" s="6" t="n">
-        <v>0.1291471451506214</v>
+        <v>0.1293292803496624</v>
       </c>
       <c r="J118" s="5" t="n">
         <v>307</v>
@@ -8072,19 +8072,19 @@
         <v>193335</v>
       </c>
       <c r="L118" s="5" t="n">
-        <v>172248</v>
+        <v>170929</v>
       </c>
       <c r="M118" s="5" t="n">
-        <v>219592</v>
+        <v>217146</v>
       </c>
       <c r="N118" s="6" t="n">
-        <v>0.10414080916437</v>
+        <v>0.1041408091643699</v>
       </c>
       <c r="O118" s="6" t="n">
-        <v>0.09278176600710218</v>
+        <v>0.0920714953835927</v>
       </c>
       <c r="P118" s="6" t="n">
-        <v>0.1182838454705124</v>
+        <v>0.1169664711707492</v>
       </c>
       <c r="Q118" s="5" t="n">
         <v>539</v>
@@ -8093,19 +8093,19 @@
         <v>397778</v>
       </c>
       <c r="S118" s="5" t="n">
-        <v>364411</v>
+        <v>367956</v>
       </c>
       <c r="T118" s="5" t="n">
-        <v>435844</v>
+        <v>435046</v>
       </c>
       <c r="U118" s="6" t="n">
         <v>0.108755057611553</v>
       </c>
       <c r="V118" s="6" t="n">
-        <v>0.09963242667699639</v>
+        <v>0.1006015734312655</v>
       </c>
       <c r="W118" s="6" t="n">
-        <v>0.1191626102900852</v>
+        <v>0.1189445170065771</v>
       </c>
     </row>
     <row r="119">
@@ -8122,19 +8122,19 @@
         <v>1331230</v>
       </c>
       <c r="E119" s="5" t="n">
-        <v>1287371</v>
+        <v>1289059</v>
       </c>
       <c r="F119" s="5" t="n">
-        <v>1372485</v>
+        <v>1372989</v>
       </c>
       <c r="G119" s="6" t="n">
-        <v>0.7391308074158979</v>
+        <v>0.7391308074158978</v>
       </c>
       <c r="H119" s="6" t="n">
-        <v>0.7147792447107179</v>
+        <v>0.7157166909780817</v>
       </c>
       <c r="I119" s="6" t="n">
-        <v>0.7620364477471089</v>
+        <v>0.7623161385811974</v>
       </c>
       <c r="J119" s="5" t="n">
         <v>2107</v>
@@ -8143,19 +8143,19 @@
         <v>1426164</v>
       </c>
       <c r="L119" s="5" t="n">
-        <v>1394205</v>
+        <v>1393207</v>
       </c>
       <c r="M119" s="5" t="n">
-        <v>1458416</v>
+        <v>1460275</v>
       </c>
       <c r="N119" s="6" t="n">
-        <v>0.7682080722432895</v>
+        <v>0.7682080722432894</v>
       </c>
       <c r="O119" s="6" t="n">
-        <v>0.7509931608611562</v>
+        <v>0.7504559014991976</v>
       </c>
       <c r="P119" s="6" t="n">
-        <v>0.7855810734562493</v>
+        <v>0.7865822933946219</v>
       </c>
       <c r="Q119" s="5" t="n">
         <v>3422</v>
@@ -8164,19 +8164,19 @@
         <v>2757393</v>
       </c>
       <c r="S119" s="5" t="n">
-        <v>2693335</v>
+        <v>2698753</v>
       </c>
       <c r="T119" s="5" t="n">
-        <v>2803508</v>
+        <v>2806331</v>
       </c>
       <c r="U119" s="6" t="n">
-        <v>0.7538896770469371</v>
+        <v>0.7538896770469369</v>
       </c>
       <c r="V119" s="6" t="n">
-        <v>0.7363759363893422</v>
+        <v>0.7378571229659471</v>
       </c>
       <c r="W119" s="6" t="n">
-        <v>0.7664979302874482</v>
+        <v>0.767269711306067</v>
       </c>
     </row>
     <row r="120">
